--- a/Documentação/Planilhas/Layouts/Orders_Web.xlsx
+++ b/Documentação/Planilhas/Layouts/Orders_Web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="stg_corp_sku" sheetId="125" r:id="rId1"/>
@@ -17,17 +17,22 @@
     <sheet name="stg_loja_skukit" sheetId="133" r:id="rId8"/>
     <sheet name="stg_site_estoque_tipo" sheetId="134" r:id="rId9"/>
     <sheet name="stg_site_estoque_saldo" sheetId="135" r:id="rId10"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId11"/>
+    <sheet name="stg_meio_pagamento_SITE_x_SIGE" sheetId="136" r:id="rId11"/>
+    <sheet name="stg_skuservice" sheetId="137" r:id="rId12"/>
+    <sheet name="stg_sku" sheetId="138" r:id="rId13"/>
+    <sheet name="stg_tipo_entrega" sheetId="139" r:id="rId14"/>
+    <sheet name="ods_kit_sku" sheetId="140" r:id="rId15"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Resumo!$B$2:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Resumo!$B$2:$E$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="230">
   <si>
     <t>Campo</t>
   </si>
@@ -366,6 +371,357 @@
   </si>
   <si>
     <t>spETL_source_SkuEstoqueSaldo</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_meio_pagamento_SITE_x_SIGE]</t>
+  </si>
+  <si>
+    <t>NR_FORMA_PAGTO_SIGE</t>
+  </si>
+  <si>
+    <t>ID_MEIO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>ID_BANDEIRA</t>
+  </si>
+  <si>
+    <t>ID_BANCO</t>
+  </si>
+  <si>
+    <t>FormaPagamento</t>
+  </si>
+  <si>
+    <t>FormaPagamentoSige</t>
+  </si>
+  <si>
+    <t>Identifica a Forma de Pagamento através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Meio de Pagamento através do seu código. Ex: 1, 4, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Bandeira através do seu código. Ex: 001, 002, 003, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Banco através do seu código. Ex: 237, 341, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_skuservice]</t>
+  </si>
+  <si>
+    <t>nr_type</t>
+  </si>
+  <si>
+    <t>ds_type</t>
+  </si>
+  <si>
+    <t>nr_sku_service</t>
+  </si>
+  <si>
+    <t>ds_sku_service</t>
+  </si>
+  <si>
+    <t>nr_sku</t>
+  </si>
+  <si>
+    <t>gerencial_id</t>
+  </si>
+  <si>
+    <t>spETL_source_SkuServico</t>
+  </si>
+  <si>
+    <t>spETL_source_SkuServicoTipo</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Serviço através do seu código. Ex: 127, 128, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Serviço através da sua descrição. Ex: Garantia Estendida, Embalagem, etc</t>
+  </si>
+  <si>
+    <t>Identifica o SKU de serviço através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o SKU de serviço através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica o SKU através do seu código. Ex: 1000034098, 3069315, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Gerencial ID através do seu número. Ex: 30693300001, 30693240001, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_sku]</t>
+  </si>
+  <si>
+    <t>nr_depto</t>
+  </si>
+  <si>
+    <t>ds_depto</t>
+  </si>
+  <si>
+    <t>nr_sector</t>
+  </si>
+  <si>
+    <t>ds_sector</t>
+  </si>
+  <si>
+    <t>nr_mark</t>
+  </si>
+  <si>
+    <t>ds_mark</t>
+  </si>
+  <si>
+    <t>nr_manufacturer</t>
+  </si>
+  <si>
+    <t>ds_manufacturer</t>
+  </si>
+  <si>
+    <t>ds_manufacturer_cnpj</t>
+  </si>
+  <si>
+    <t>nr_supplier</t>
+  </si>
+  <si>
+    <t>ds_supplier</t>
+  </si>
+  <si>
+    <t>ds_supplier_cnpj</t>
+  </si>
+  <si>
+    <t>ds_textsite</t>
+  </si>
+  <si>
+    <t>nr_product</t>
+  </si>
+  <si>
+    <t>ds_product</t>
+  </si>
+  <si>
+    <t>ds_textproduct</t>
+  </si>
+  <si>
+    <t>ds_sku</t>
+  </si>
+  <si>
+    <t>vl_priceant</t>
+  </si>
+  <si>
+    <t>vl_price</t>
+  </si>
+  <si>
+    <t>vl_cmv</t>
+  </si>
+  <si>
+    <t>nr_freight_modal</t>
+  </si>
+  <si>
+    <t>ds_ean13</t>
+  </si>
+  <si>
+    <t>ds_ref</t>
+  </si>
+  <si>
+    <t>nr_weight</t>
+  </si>
+  <si>
+    <t>nr_height</t>
+  </si>
+  <si>
+    <t>nr_width</t>
+  </si>
+  <si>
+    <t>nr_length</t>
+  </si>
+  <si>
+    <t>nr_weight_cubic</t>
+  </si>
+  <si>
+    <t>nr_weight_real</t>
+  </si>
+  <si>
+    <t>nr_height_real</t>
+  </si>
+  <si>
+    <t>nr_width_real</t>
+  </si>
+  <si>
+    <t>nr_length_real</t>
+  </si>
+  <si>
+    <t>nr_active</t>
+  </si>
+  <si>
+    <t>nr_kit</t>
+  </si>
+  <si>
+    <t>spETL_source_Fabricante</t>
+  </si>
+  <si>
+    <t>spETL_source_Fornecedor</t>
+  </si>
+  <si>
+    <t>spETL_source_FreteModalTipo</t>
+  </si>
+  <si>
+    <t>spETL_source_Marca</t>
+  </si>
+  <si>
+    <t>spETL_source_SkuEan</t>
+  </si>
+  <si>
+    <t>desabilitado</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica o Setor através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Setor através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica a Marca através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica a Marca através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica o Fabricante através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Fabricante através do seu nome</t>
+  </si>
+  <si>
+    <t>Identifica o Fabricante através do seu CNPJ sem qualquer separador</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu nome</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu CNPJ sem qualquer separador</t>
+  </si>
+  <si>
+    <t>Identifica o Texto do Site</t>
+  </si>
+  <si>
+    <t>Identifica o Produto através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Produto através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica o Texto do Produto</t>
+  </si>
+  <si>
+    <t>Identifica o SKU através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o SKU através da sua descrição</t>
+  </si>
+  <si>
+    <t>Valor do preço anterior</t>
+  </si>
+  <si>
+    <t>Valor do Preço atual</t>
+  </si>
+  <si>
+    <t>Valor do Custo Médio de Vendas</t>
+  </si>
+  <si>
+    <t>Identifica o Frete Modal através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o código EAN</t>
+  </si>
+  <si>
+    <t>Identifica a Referência</t>
+  </si>
+  <si>
+    <t>Peso do Produto</t>
+  </si>
+  <si>
+    <t>Altura do Produto</t>
+  </si>
+  <si>
+    <t>Tamanho do Produto</t>
+  </si>
+  <si>
+    <t>Largura do Produto</t>
+  </si>
+  <si>
+    <t>Peso Cúbico do Produto</t>
+  </si>
+  <si>
+    <t>Peso Real do Produto</t>
+  </si>
+  <si>
+    <t>Altura Real do Produto</t>
+  </si>
+  <si>
+    <t>Largura Real do Produto</t>
+  </si>
+  <si>
+    <t>Tamanho Real do Produto</t>
+  </si>
+  <si>
+    <t>Identifica o Kit através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o número ativo</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_tipo_entrega]</t>
+  </si>
+  <si>
+    <t>id_tipo_entrega</t>
+  </si>
+  <si>
+    <t>ds_tipo_entrega</t>
+  </si>
+  <si>
+    <t>FreteEntregaTipo</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Entrega através do seu código. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Entrega através da sua descrição. Ex: Normal 1, Expressa 3, Econômica 2, etc</t>
+  </si>
+  <si>
+    <t>[com].[ods_kit_sku]</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>nr_item_sku_kit</t>
+  </si>
+  <si>
+    <t>dt_carga</t>
+  </si>
+  <si>
+    <t>Identifica o Item SKU Kit através do seu código. Ex: 1000012440, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Item SKU através do seu código. Ex: 3674, 21462, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Carga no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>com.stg_loja_skukit</t>
+  </si>
+  <si>
+    <t>Precisa ser documentado as demais tabelas</t>
   </si>
 </sst>
 </file>
@@ -758,6 +1114,231 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1610,7 +2191,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1742,12 +2323,946 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1925,33 +3440,80 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="18" t="str">
+        <f>stg_meio_pagamento_SITE_x_SIGE!B9</f>
+        <v>[dbo].[stg_meio_pagamento_SITE_x_SIGE]</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f>stg_meio_pagamento_SITE_x_SIGE!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f>stg_meio_pagamento_SITE_x_SIGE!B10</f>
+        <v>N:\Migracao\Orders Web Completo\stg_carga_dados_corp_completo.dtsx</v>
+      </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="18" t="str">
+        <f>stg_skuservice!B9</f>
+        <v>[dbo].[stg_skuservice]</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f>stg_skuservice!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f>stg_skuservice!B10</f>
+        <v>N:\Migracao\Orders Web Completo\stg_carga_dados_corp_completo.dtsx</v>
+      </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="18" t="str">
+        <f>stg_sku!B9</f>
+        <v>[dbo].[stg_sku]</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f>stg_sku!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>stg_sku!B10</f>
+        <v>N:\Migracao\Orders Web Completo\stg_carga_dados_corp_completo.dtsx</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="18" t="str">
+        <f>stg_tipo_entrega!B9</f>
+        <v>[dbo].[stg_tipo_entrega]</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f>stg_tipo_entrega!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>stg_tipo_entrega!B10</f>
+        <v>N:\Migracao\Orders Web Completo\stg_carga_dados_corp_completo.dtsx</v>
+      </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="18" t="str">
+        <f>ods_kit_sku!B9</f>
+        <v>[com].[ods_kit_sku]</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f>ods_kit_sku!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>ods_kit_sku!B10</f>
+        <v>N:\Migracao\Orders Web Completo\stg_carga_dados_corp_completo.dtsx</v>
+      </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5">
@@ -1963,7 +3525,9 @@
     <row r="19" spans="2:5">
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5">
@@ -2029,6 +3593,11 @@
     <hyperlink ref="B10" location="stg_loja_skukit!A1" display="stg_loja_skukit!A1"/>
     <hyperlink ref="B11" location="stg_site_estoque_tipo!A1" display="stg_site_estoque_tipo!A1"/>
     <hyperlink ref="B12" location="stg_site_estoque_saldo!A1" display="stg_site_estoque_saldo!A1"/>
+    <hyperlink ref="B13" location="stg_meio_pagamento_SITE_x_SIGE!A1" display="stg_meio_pagamento_SITE_x_SIGE!A1"/>
+    <hyperlink ref="B14" location="stg_skuservice!A1" display="stg_skuservice!A1"/>
+    <hyperlink ref="B15" location="stg_sku!A1" display="stg_sku!A1"/>
+    <hyperlink ref="B16" location="stg_tipo_entrega!A1" display="stg_tipo_entrega!A1"/>
+    <hyperlink ref="B17" location="ods_kit_sku!A1" display="ods_kit_sku!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
